--- a/release-notes/2024-09/closed-bugs-sle-2024-09.xlsx
+++ b/release-notes/2024-09/closed-bugs-sle-2024-09.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nio365.sharepoint.com/sites/IoTProgram/Shared Documents/ProjectDocuments/SystemLink 2024/2024 Q4 (v.24.8)(releasing out of Cycle 24.C3)/Common docs/Release notes/SLE 2024-09 Release Notes - August iteration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markblack/repos/github/install-systemlink-enterprise/release-notes/2024-09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DB4592C-ADBF-497A-8A9E-FBD6AB4BD5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18860A3-0F97-9344-A9C3-0BA93126015A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="7620" windowWidth="23240" windowHeight="14000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="closed bugs in last iteration" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -47,36 +47,21 @@
     <t>State</t>
   </si>
   <si>
-    <t>sl-toolbar, sl-breadcrumb-bar, and sl-details-panel spacing is slightly incorrect</t>
-  </si>
-  <si>
     <t>Closed</t>
   </si>
   <si>
     <t>Table expansion arrows are wrong direction</t>
   </si>
   <si>
-    <t>Dynamic filtering for in progress execution is not consistent with api</t>
-  </si>
-  <si>
     <t>Updating external calibration with same fields but missing entryType returns error</t>
   </si>
   <si>
-    <t>Shared saved views of Tags grid do not work. On feeds, we have to hide "Configure current view" button similarly with other apps.</t>
-  </si>
-  <si>
-    <t>Result not loading for first time after tab switch</t>
-  </si>
-  <si>
     <t>Test Results table query includes more data than is necessary</t>
   </si>
   <si>
     <t>Error Code 500 when Setting Continuation Token to an Empty String using /nidataframe/v1/query-tables</t>
   </si>
   <si>
-    <t>Missing Alarm Services Documentation in configuring-a-mongodb-instance.html</t>
-  </si>
-  <si>
     <t>Products | Update attachment toggle disables automatically</t>
   </si>
   <si>
@@ -99,13 +84,25 @@
   </si>
   <si>
     <t>Systems UI | Create state banners don't specify state name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic filtering for in progress execution must support both IN_PROGRESS &amp; INPROGRESS </t>
+  </si>
+  <si>
+    <t>Shared saved views have inconsistent behavior across apps</t>
+  </si>
+  <si>
+    <t>When viewing Test Results, new results may not be shown unless the user refreshes the page.</t>
+  </si>
+  <si>
+    <t>Missing Alarm Services Documentation in "Configuring a MongoDB Instance"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -643,9 +640,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -683,7 +680,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -789,7 +786,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -931,7 +928,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -939,18 +936,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="110.375" customWidth="1"/>
+    <col min="2" max="2" width="110.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -961,191 +958,180 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2822271</v>
+        <v>2822281</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2822281</v>
+        <v>2828236</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2843211</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4">
-        <v>2828236</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2766979</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2832737</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2817112</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5">
-        <v>2843211</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2796421</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6">
-        <v>2766979</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2807730</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2832699</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7">
-        <v>2832737</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2811165</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8">
-        <v>2817112</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2819914</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9">
-        <v>2796421</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2820161</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10">
-        <v>2807730</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2819168</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11">
-        <v>2832699</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2809124</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12">
-        <v>2811165</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2825673</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13">
-        <v>2819914</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2809956</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14">
-        <v>2820161</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A15">
-        <v>2819168</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A16">
-        <v>2809124</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17">
-        <v>2825673</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
       <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A18">
-        <v>2809956</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1157,15 +1143,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC68938C25E75A48B38E3943F7278D4C" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d58f385c17140d35cbd71f1f19d1bc6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9" xmlns:ns3="8f35f8fb-94b8-4296-88b5-253c68a5f93d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6fea239938238ce97a7c0b11cdae990" ns2:_="" ns3:_="">
     <xsd:import namespace="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9"/>
@@ -1414,6 +1391,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1426,13 +1412,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F5BA7BF-C649-45A8-BA98-72C6A48D6AFB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDD13E7E-916C-4710-89E9-937C762EA783}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9"/>
+    <ds:schemaRef ds:uri="8f35f8fb-94b8-4296-88b5-253c68a5f93d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDD13E7E-916C-4710-89E9-937C762EA783}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F5BA7BF-C649-45A8-BA98-72C6A48D6AFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E6B2099-BF96-40FC-B6D0-611F0B5B8DEE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E6B2099-BF96-40FC-B6D0-611F0B5B8DEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9"/>
+    <ds:schemaRef ds:uri="8f35f8fb-94b8-4296-88b5-253c68a5f93d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>